--- a/mytools/P0_Test/TestReport.xlsx
+++ b/mytools/P0_Test/TestReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740"/>
+    <workbookView windowWidth="18530" windowHeight="7130" tabRatio="777" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="37">
   <si>
     <t>B66</t>
   </si>
@@ -106,6 +106,9 @@
     <t>20+20</t>
   </si>
   <si>
+    <t>20+10+5+10</t>
+  </si>
+  <si>
     <t>5+10+gap25+20+10</t>
   </si>
   <si>
@@ -135,10 +138,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -150,14 +153,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,7 +168,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,22 +205,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,15 +219,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,8 +240,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,7 +250,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,43 +305,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,7 +317,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,61 +335,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,7 +353,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,7 +407,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,31 +473,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,65 +510,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,6 +548,65 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -616,10 +619,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -628,133 +631,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1121,15 +1124,15 @@
   <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="20.8148148148148" customWidth="1"/>
-    <col min="4" max="4" width="17.3611111111111" customWidth="1"/>
-    <col min="5" max="5" width="12.9074074074074" customWidth="1"/>
+    <col min="2" max="2" width="20.8181818181818" customWidth="1"/>
+    <col min="4" max="4" width="17.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="12.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1192,26 +1195,26 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="18.6666666666667" style="3" customWidth="1"/>
+    <col min="1" max="1" width="18.6636363636364" style="3" customWidth="1"/>
     <col min="2" max="3" width="9" style="3"/>
-    <col min="4" max="4" width="5.66666666666667" style="3" customWidth="1"/>
-    <col min="5" max="5" width="6.66666666666667" style="3" customWidth="1"/>
-    <col min="6" max="6" width="5.66666666666667" style="3" customWidth="1"/>
-    <col min="7" max="7" width="6.66666666666667" style="3" customWidth="1"/>
-    <col min="8" max="8" width="5.66666666666667" style="3" customWidth="1"/>
+    <col min="4" max="4" width="5.66363636363636" style="3" customWidth="1"/>
+    <col min="5" max="5" width="6.66363636363636" style="3" customWidth="1"/>
+    <col min="6" max="6" width="5.66363636363636" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.66363636363636" style="3" customWidth="1"/>
+    <col min="8" max="8" width="5.66363636363636" style="3" customWidth="1"/>
     <col min="9" max="9" width="9" style="3"/>
-    <col min="10" max="10" width="9.66666666666667" style="3" customWidth="1"/>
-    <col min="11" max="11" width="7.66666666666667" style="3" customWidth="1"/>
-    <col min="12" max="13" width="18.6666666666667" style="3" customWidth="1"/>
-    <col min="14" max="14" width="8.66666666666667" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.66363636363636" style="3" customWidth="1"/>
+    <col min="11" max="11" width="7.66363636363636" style="3" customWidth="1"/>
+    <col min="12" max="13" width="18.6636363636364" style="3" customWidth="1"/>
+    <col min="14" max="14" width="8.66363636363636" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1524,19 +1527,19 @@
         <v>2110</v>
       </c>
       <c r="E8" s="1">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1">
-        <v>2145</v>
+        <v>2130</v>
       </c>
       <c r="G8" s="1">
-        <v>9.2</v>
+        <v>10.1</v>
       </c>
       <c r="H8" s="1">
-        <v>0.51</v>
+        <v>0.55</v>
       </c>
       <c r="I8" s="1">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>24</v>
@@ -1572,13 +1575,13 @@
         <v>2155</v>
       </c>
       <c r="G9" s="1">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="H9" s="1">
-        <v>0.51</v>
+        <v>0.55</v>
       </c>
       <c r="I9" s="1">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>24</v>
@@ -1608,19 +1611,19 @@
         <v>2110</v>
       </c>
       <c r="E10" s="1">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F10" s="1">
-        <v>2165</v>
+        <v>2175</v>
       </c>
       <c r="G10" s="1">
-        <v>9.3</v>
+        <v>10.3</v>
       </c>
       <c r="H10" s="1">
-        <v>0.51</v>
+        <v>0.55</v>
       </c>
       <c r="I10" s="1">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>24</v>
@@ -1638,11 +1641,140 @@
         <v>50</v>
       </c>
     </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2110</v>
+      </c>
+      <c r="E11" s="1">
+        <v>35</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2145</v>
+      </c>
+      <c r="G11" s="1">
+        <v>9.2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="I11" s="1">
+        <v>215</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="1">
+        <v>655350</v>
+      </c>
+      <c r="L11" s="1">
+        <v>20</v>
+      </c>
+      <c r="M11" s="1">
+        <v>20</v>
+      </c>
+      <c r="N11" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2110</v>
+      </c>
+      <c r="E12" s="1">
+        <v>45</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2155</v>
+      </c>
+      <c r="G12" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="I12" s="1">
+        <v>215</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="1">
+        <v>655350</v>
+      </c>
+      <c r="L12" s="1">
+        <v>20</v>
+      </c>
+      <c r="M12" s="1">
+        <v>20</v>
+      </c>
+      <c r="N12" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2110</v>
+      </c>
+      <c r="E13" s="1">
+        <v>55</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2165</v>
+      </c>
+      <c r="G13" s="1">
+        <v>9.3</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="I13" s="1">
+        <v>215</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="1">
+        <v>655350</v>
+      </c>
+      <c r="L13" s="1">
+        <v>20</v>
+      </c>
+      <c r="M13" s="1">
+        <v>20</v>
+      </c>
+      <c r="N13" s="1">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1659,17 +1791,17 @@
       <selection activeCell="N8" sqref="A1:N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="4" max="4" width="5.66666666666667" customWidth="1"/>
-    <col min="5" max="5" width="6.66666666666667" customWidth="1"/>
-    <col min="6" max="6" width="5.66666666666667" customWidth="1"/>
-    <col min="7" max="7" width="6.66666666666667" customWidth="1"/>
-    <col min="8" max="8" width="5.66666666666667" customWidth="1"/>
-    <col min="10" max="10" width="9.66666666666667" customWidth="1"/>
-    <col min="11" max="12" width="18.6666666666667" customWidth="1"/>
-    <col min="13" max="13" width="18.6666666666667" style="3" customWidth="1"/>
+    <col min="4" max="4" width="5.66363636363636" customWidth="1"/>
+    <col min="5" max="5" width="6.66363636363636" customWidth="1"/>
+    <col min="6" max="6" width="5.66363636363636" customWidth="1"/>
+    <col min="7" max="7" width="6.66363636363636" customWidth="1"/>
+    <col min="8" max="8" width="5.66363636363636" customWidth="1"/>
+    <col min="10" max="10" width="9.66363636363636" customWidth="1"/>
+    <col min="11" max="12" width="18.6636363636364" customWidth="1"/>
+    <col min="13" max="13" width="18.6636363636364" style="3" customWidth="1"/>
     <col min="14" max="14" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -1971,10 +2103,10 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -2061,19 +2193,19 @@
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="3" max="3" width="9.66666666666667" customWidth="1"/>
-    <col min="4" max="4" width="4.66666666666667" customWidth="1"/>
-    <col min="5" max="5" width="6.66666666666667" customWidth="1"/>
-    <col min="6" max="6" width="5.66666666666667" customWidth="1"/>
-    <col min="7" max="7" width="6.66666666666667" customWidth="1"/>
-    <col min="8" max="8" width="5.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="8.66666666666667" customWidth="1"/>
-    <col min="10" max="10" width="35.5555555555556" customWidth="1"/>
-    <col min="11" max="11" width="7.66666666666667" customWidth="1"/>
-    <col min="12" max="13" width="18.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="9.66363636363636" customWidth="1"/>
+    <col min="4" max="4" width="4.66363636363636" customWidth="1"/>
+    <col min="5" max="5" width="6.66363636363636" customWidth="1"/>
+    <col min="6" max="6" width="5.66363636363636" customWidth="1"/>
+    <col min="7" max="7" width="6.66363636363636" customWidth="1"/>
+    <col min="8" max="8" width="5.66363636363636" customWidth="1"/>
+    <col min="9" max="9" width="8.66363636363636" customWidth="1"/>
+    <col min="10" max="10" width="35.5545454545455" customWidth="1"/>
+    <col min="11" max="11" width="7.66363636363636" customWidth="1"/>
+    <col min="12" max="13" width="18.6636363636364" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -2127,10 +2259,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1">
         <v>3500</v>
@@ -2145,7 +2277,7 @@
         <v>225</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K2" s="1">
         <v>655350</v>
@@ -2169,10 +2301,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3" s="1">
         <v>3575</v>
@@ -2187,7 +2319,7 @@
         <v>225</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K3" s="1">
         <v>655350</v>
@@ -2211,10 +2343,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" s="1">
         <v>3650</v>
@@ -2229,7 +2361,7 @@
         <v>225</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K4" s="1">
         <v>655350</v>
@@ -2246,7 +2378,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>23</v>
@@ -2255,10 +2387,10 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" s="1">
         <v>3550</v>
@@ -2273,7 +2405,7 @@
         <v>225</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K5" s="1">
         <v>655350</v>
@@ -2297,10 +2429,10 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1">
         <v>3600</v>
@@ -2315,7 +2447,7 @@
         <v>225</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K6" s="1">
         <v>655350</v>
@@ -2332,7 +2464,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -2341,10 +2473,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1">
         <v>3550</v>
@@ -2359,7 +2491,7 @@
         <v>225</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="1">
         <v>655350</v>
@@ -2383,10 +2515,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" s="1">
         <v>3600</v>
@@ -2401,7 +2533,7 @@
         <v>225</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K8" s="1">
         <v>655350</v>
@@ -2464,22 +2596,22 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="3" max="3" width="9.66666666666667" customWidth="1"/>
-    <col min="4" max="4" width="4.66666666666667" customWidth="1"/>
-    <col min="5" max="5" width="6.66666666666667" customWidth="1"/>
-    <col min="6" max="6" width="5.66666666666667" customWidth="1"/>
-    <col min="7" max="7" width="6.66666666666667" customWidth="1"/>
-    <col min="8" max="8" width="5.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="8.66666666666667" customWidth="1"/>
-    <col min="10" max="10" width="35.5555555555556" customWidth="1"/>
-    <col min="11" max="11" width="7.66666666666667" customWidth="1"/>
-    <col min="12" max="13" width="18.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="9.66363636363636" customWidth="1"/>
+    <col min="4" max="4" width="4.66363636363636" customWidth="1"/>
+    <col min="5" max="5" width="6.66363636363636" customWidth="1"/>
+    <col min="6" max="6" width="5.66363636363636" customWidth="1"/>
+    <col min="7" max="7" width="6.66363636363636" customWidth="1"/>
+    <col min="8" max="8" width="5.66363636363636" customWidth="1"/>
+    <col min="9" max="9" width="8.66363636363636" customWidth="1"/>
+    <col min="10" max="10" width="35.5545454545455" customWidth="1"/>
+    <col min="11" max="11" width="7.66363636363636" customWidth="1"/>
+    <col min="12" max="13" width="18.6636363636364" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -2533,16 +2665,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1">
         <v>3500</v>
       </c>
       <c r="G2" s="1">
-        <v>9.7</v>
+        <v>9.4</v>
       </c>
       <c r="H2" s="1">
         <v>0.41</v>
@@ -2551,7 +2683,7 @@
         <v>225</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K2" s="1">
         <v>655350</v>
@@ -2575,16 +2707,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3" s="1">
         <v>3575</v>
       </c>
       <c r="G3" s="1">
-        <v>9.3</v>
+        <v>9.6</v>
       </c>
       <c r="H3" s="1">
         <v>0.41</v>
@@ -2593,7 +2725,7 @@
         <v>225</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K3" s="1">
         <v>655350</v>
@@ -2617,16 +2749,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" s="1">
         <v>3650</v>
       </c>
       <c r="G4" s="1">
-        <v>8.9</v>
+        <v>8.5</v>
       </c>
       <c r="H4" s="1">
         <v>0.41</v>
@@ -2635,7 +2767,7 @@
         <v>225</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K4" s="1">
         <v>655350</v>
@@ -2652,7 +2784,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>23</v>
@@ -2661,16 +2793,16 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" s="1">
         <v>3550</v>
       </c>
       <c r="G5" s="1">
-        <v>8.8</v>
+        <v>8.5</v>
       </c>
       <c r="H5" s="1">
         <v>0.39</v>
@@ -2679,7 +2811,7 @@
         <v>225</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K5" s="1">
         <v>655350</v>
@@ -2703,16 +2835,16 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1">
         <v>3600</v>
       </c>
       <c r="G6" s="1">
-        <v>8.5</v>
+        <v>8.3</v>
       </c>
       <c r="H6" s="1">
         <v>0.39</v>
@@ -2721,7 +2853,7 @@
         <v>225</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K6" s="1">
         <v>655350</v>
@@ -2738,7 +2870,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -2747,16 +2879,16 @@
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1">
         <v>3550</v>
       </c>
       <c r="G7" s="1">
-        <v>8.1</v>
+        <v>7.6</v>
       </c>
       <c r="H7" s="1">
         <v>0.36</v>
@@ -2765,7 +2897,7 @@
         <v>225</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="1">
         <v>655350</v>
@@ -2789,16 +2921,16 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" s="1">
         <v>3600</v>
       </c>
       <c r="G8" s="1">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="H8" s="1">
         <v>0.36</v>
@@ -2807,7 +2939,7 @@
         <v>225</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K8" s="1">
         <v>655350</v>
@@ -2873,20 +3005,20 @@
       <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="3" max="3" width="9.66666666666667" customWidth="1"/>
-    <col min="4" max="4" width="4.66666666666667" customWidth="1"/>
-    <col min="5" max="5" width="6.66666666666667" customWidth="1"/>
-    <col min="6" max="6" width="5.66666666666667" customWidth="1"/>
-    <col min="7" max="7" width="6.66666666666667" customWidth="1"/>
-    <col min="8" max="8" width="5.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="8.66666666666667" customWidth="1"/>
-    <col min="10" max="10" width="35.5555555555556" customWidth="1"/>
-    <col min="11" max="11" width="7.66666666666667" customWidth="1"/>
-    <col min="12" max="13" width="18.6666666666667" customWidth="1"/>
-    <col min="14" max="14" width="8.66666666666667" customWidth="1"/>
+    <col min="3" max="3" width="9.66363636363636" customWidth="1"/>
+    <col min="4" max="4" width="4.66363636363636" customWidth="1"/>
+    <col min="5" max="5" width="6.66363636363636" customWidth="1"/>
+    <col min="6" max="6" width="5.66363636363636" customWidth="1"/>
+    <col min="7" max="7" width="6.66363636363636" customWidth="1"/>
+    <col min="8" max="8" width="5.66363636363636" customWidth="1"/>
+    <col min="9" max="9" width="8.66363636363636" customWidth="1"/>
+    <col min="10" max="10" width="35.5545454545455" customWidth="1"/>
+    <col min="11" max="11" width="7.66363636363636" customWidth="1"/>
+    <col min="12" max="13" width="18.6636363636364" customWidth="1"/>
+    <col min="14" max="14" width="8.66363636363636" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -2940,10 +3072,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1">
         <v>3500</v>
@@ -2958,7 +3090,7 @@
         <v>210</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K2" s="1">
         <v>655350</v>
@@ -2982,10 +3114,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3" s="1">
         <v>3575</v>
@@ -3000,7 +3132,7 @@
         <v>210</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K3" s="1">
         <v>655350</v>
@@ -3024,10 +3156,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" s="1">
         <v>3650</v>
@@ -3042,7 +3174,7 @@
         <v>210</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K4" s="1">
         <v>655350</v>
@@ -3059,7 +3191,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>23</v>
@@ -3068,10 +3200,10 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" s="1">
         <v>3550</v>
@@ -3086,7 +3218,7 @@
         <v>210</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K5" s="1">
         <v>655350</v>
@@ -3110,10 +3242,10 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1">
         <v>3600</v>
@@ -3128,7 +3260,7 @@
         <v>210</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K6" s="1">
         <v>655350</v>
@@ -3145,7 +3277,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -3154,10 +3286,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1">
         <v>3550</v>
@@ -3172,7 +3304,7 @@
         <v>210</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="1">
         <v>655350</v>
@@ -3196,10 +3328,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" s="1">
         <v>3600</v>
@@ -3214,7 +3346,7 @@
         <v>210</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K8" s="1">
         <v>655350</v>
@@ -3276,23 +3408,23 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="3" max="3" width="9.66666666666667" customWidth="1"/>
-    <col min="4" max="4" width="4.66666666666667" customWidth="1"/>
-    <col min="5" max="5" width="6.66666666666667" customWidth="1"/>
-    <col min="6" max="6" width="5.66666666666667" customWidth="1"/>
-    <col min="7" max="7" width="6.66666666666667" customWidth="1"/>
-    <col min="8" max="8" width="5.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="8.66666666666667" customWidth="1"/>
-    <col min="10" max="10" width="35.5555555555556" customWidth="1"/>
-    <col min="11" max="11" width="7.66666666666667" customWidth="1"/>
-    <col min="12" max="13" width="18.6666666666667" customWidth="1"/>
-    <col min="14" max="14" width="8.66666666666667" customWidth="1"/>
+    <col min="3" max="3" width="9.66363636363636" customWidth="1"/>
+    <col min="4" max="4" width="4.66363636363636" customWidth="1"/>
+    <col min="5" max="5" width="6.66363636363636" customWidth="1"/>
+    <col min="6" max="6" width="5.66363636363636" customWidth="1"/>
+    <col min="7" max="7" width="6.66363636363636" customWidth="1"/>
+    <col min="8" max="8" width="5.66363636363636" customWidth="1"/>
+    <col min="9" max="9" width="8.66363636363636" customWidth="1"/>
+    <col min="10" max="10" width="35.5545454545455" customWidth="1"/>
+    <col min="11" max="11" width="7.66363636363636" customWidth="1"/>
+    <col min="12" max="13" width="18.6636363636364" customWidth="1"/>
+    <col min="14" max="14" width="8.66363636363636" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -3346,16 +3478,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1">
         <v>3500</v>
       </c>
       <c r="G2" s="1">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="H2" s="1">
         <v>0.41</v>
@@ -3364,7 +3496,7 @@
         <v>210</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K2" s="1">
         <v>655350</v>
@@ -3388,16 +3520,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3" s="1">
         <v>3575</v>
       </c>
       <c r="G3" s="1">
-        <v>12.1</v>
+        <v>12.6</v>
       </c>
       <c r="H3" s="1">
         <v>0.41</v>
@@ -3406,7 +3538,7 @@
         <v>210</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K3" s="1">
         <v>655350</v>
@@ -3430,16 +3562,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" s="1">
         <v>3650</v>
       </c>
       <c r="G4" s="1">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="H4" s="1">
         <v>0.41</v>
@@ -3448,7 +3580,7 @@
         <v>210</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K4" s="1">
         <v>655350</v>
@@ -3465,7 +3597,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>23</v>
@@ -3474,16 +3606,16 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" s="1">
         <v>3550</v>
       </c>
       <c r="G5" s="1">
-        <v>11.4</v>
+        <v>11.9</v>
       </c>
       <c r="H5" s="1">
         <v>0.39</v>
@@ -3492,7 +3624,7 @@
         <v>210</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K5" s="1">
         <v>655350</v>
@@ -3516,16 +3648,16 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1">
         <v>3600</v>
       </c>
       <c r="G6" s="1">
-        <v>11.3</v>
+        <v>11.7</v>
       </c>
       <c r="H6" s="1">
         <v>0.39</v>
@@ -3534,7 +3666,7 @@
         <v>210</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K6" s="1">
         <v>655350</v>
@@ -3551,7 +3683,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -3560,16 +3692,16 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1">
         <v>3550</v>
       </c>
       <c r="G7" s="1">
-        <v>10.7</v>
+        <v>10.1</v>
       </c>
       <c r="H7" s="1">
         <v>0.36</v>
@@ -3578,7 +3710,7 @@
         <v>210</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="1">
         <v>655350</v>
@@ -3602,16 +3734,16 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" s="1">
         <v>3600</v>
       </c>
       <c r="G8" s="1">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="H8" s="1">
         <v>0.36</v>
@@ -3620,7 +3752,7 @@
         <v>210</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K8" s="1">
         <v>655350</v>
